--- a/rewet/examples/Net3/Damages/Net3-pipe-damage.xlsx
+++ b/rewet/examples/Net3/Damages/Net3-pipe-damage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snaeimi\Desktop\LADWPNET\Net3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naeim\OneDrive\Desktop\REWET\rewet\examples\Net3\Damages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6FE299-4FD9-4CD7-AE4E-7D83FB66531C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2B48DE-EB21-4B06-A0B2-7D6F44605460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{4F5285CD-B712-41CA-8D71-CADDEE5BDE95}"/>
+    <workbookView xWindow="4710" yWindow="2700" windowWidth="28800" windowHeight="15410" xr2:uid="{4F5285CD-B712-41CA-8D71-CADDEE5BDE95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>pipe_id</t>
   </si>
   <si>
     <t>damage_loc</t>
-  </si>
-  <si>
-    <t>damage_subtype</t>
-  </si>
-  <si>
-    <t>number</t>
   </si>
   <si>
     <t>type</t>
@@ -134,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -174,7 +168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -280,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -422,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,21 +424,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE141639-B99B-45BF-867F-23DBFF3F439F}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -455,17 +445,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>7200</v>
       </c>
@@ -475,20 +459,14 @@
       <c r="C2">
         <v>0.7</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>7200</v>
       </c>
@@ -498,20 +476,14 @@
       <c r="C3">
         <v>0.8</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>7200</v>
       </c>
@@ -521,20 +493,14 @@
       <c r="C4">
         <v>0.9</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>7200</v>
       </c>
@@ -544,20 +510,14 @@
       <c r="C5">
         <v>0.8</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>7200</v>
       </c>
@@ -567,43 +527,31 @@
       <c r="C6">
         <v>0.5</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7200</v>
       </c>
       <c r="B7">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="C7">
-        <v>0.8</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7200</v>
       </c>
@@ -613,20 +561,14 @@
       <c r="C8">
         <v>0.5</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7200</v>
       </c>
@@ -636,17 +578,14 @@
       <c r="C9">
         <v>0.15</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7200</v>
       </c>
@@ -656,14 +595,11 @@
       <c r="C10">
         <v>0.15</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
